--- a/Final Exam Moed A Basis and ANS.xlsx
+++ b/Final Exam Moed A Basis and ANS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yvcac-my.sharepoint.com/personal/shayt_yvc_ac_il/Documents/YVC - Intro ACC/2024 A/Final Exam Moed A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/YVC - Financial Accounting A/Old Exams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="8_{C3A7FFE3-D8DC-ED4B-ABA7-424D4237B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2159BBE6-2095-734A-A514-B8EF980132BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CC21CF-546B-994C-93F5-6114FCD19B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="0" windowWidth="25620" windowHeight="32000" activeTab="2" xr2:uid="{BCBCED09-8878-6945-AEF5-81685299901C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="32000" xr2:uid="{BCBCED09-8878-6945-AEF5-81685299901C}"/>
   </bookViews>
   <sheets>
-    <sheet name="פתרון מלא א" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון גולמי מעורבל" sheetId="2" r:id="rId2"/>
+    <sheet name="פתרון משותף בכיתה" sheetId="2" r:id="rId1"/>
+    <sheet name="פתרון מלא א" sheetId="1" r:id="rId2"/>
     <sheet name="פתרון מלא ב" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
   <si>
     <t>סעיף</t>
   </si>
@@ -605,16 +605,111 @@
   </si>
   <si>
     <t>הערכים באלפי ש״ח:</t>
+  </si>
+  <si>
+    <t>הוצאות הלח״מ - חדש!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">הפרשה לחובות מסופקים ליום </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <t>הוצאות פחת מכונת נקניק - חדש!!!</t>
+  </si>
+  <si>
+    <t>רווח הון - חדש!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מכונות חימום נקניק - פחת נצבר </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מחשבי Macbook - פחת נצבר </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">הוצאות שכר דירה לשלם </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">הוצאות ניקיון מראש </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">הכנסות מראש ממתן שירותי ייעוץ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>31.12.2023</t>
+    </r>
+  </si>
+  <si>
+    <t>הוצאות פחת מחשבי Macbook- חדש!!!</t>
+  </si>
+  <si>
+    <t>הכנסות משירותי ייעוץ - חדש!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="175" formatCode="0.000_);\(0.000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,8 +738,23 @@
       <sz val="12"/>
       <name val="David"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="David"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -710,6 +826,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,6 +880,1035 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32016</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>197436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F778C01A-6A13-EC6E-3E3D-7C5831880D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540270421" y="3457815"/>
+          <a:ext cx="165420" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69370</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234790</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>186766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3239ED39-D8A9-EACF-DD8A-883320C601F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536924664" y="6296639"/>
+          <a:ext cx="165420" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37352</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>197436</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>192104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666CDEE-9453-F73E-2786-B80F5837C688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540270421" y="4477019"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90712</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250796</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>192103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC8BAF5-AF31-ABA8-8A8B-754B62E8A698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13537735759" y="6707523"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69368</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>229452</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B254127-F04F-C975-75B8-417512E85446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536930002" y="6520758"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>181426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>197438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536CF914-A7EE-6E7B-953B-8F7555E2CE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540286431" y="3062942"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>677687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10670</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>192102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA15A4BA-4DAF-8F82-2348-BF37D30D1F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540457187" y="4477017"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112056</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>272140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>197438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0C06E5-05DD-BC91-B54E-818C05D87D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540195717" y="5496219"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>827099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160082</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>197438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCECB5F-63AD-4FE1-0212-C495C4250793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536999372" y="6915631"/>
+          <a:ext cx="160084" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608319</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96048</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>197438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B0070A-7674-069F-020F-26B61C20F9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540371809" y="6104538"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>613655</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101384</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68654DF-0A15-B320-60FA-F5029A019765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13540366473" y="2038403"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213443</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3D99E-C596-DB6B-E934-6A18BB0AFE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536946011" y="2470630"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>699033</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>186763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>192101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rounded Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EED0D9-CE4C-50A3-589A-325CDA550C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13539453994" y="827100"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C643B185-8C32-7B87-1EAD-4CDC99E195BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536855296" y="5298781"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>677689</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165419</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>197438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06F2FC6-5829-5BE1-53AD-CCE9790A82D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13539475338" y="2251849"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>779076</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266805</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>186766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B281289-2A24-D3A3-7F56-8CE62A3CDE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13537719750" y="7107732"/>
+          <a:ext cx="314830" cy="176093"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="800"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1344,10 +2525,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1664,1340 +2841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DA7F01-A05A-E141-BA8E-4265B4559C54}">
-  <dimension ref="A1:X90"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="33.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6">
-        <f>10+492.5</f>
-        <v>502.5</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>200</v>
-      </c>
-      <c r="K4" s="8">
-        <f>200</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="6">
-        <v>-20</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1">
-        <f>N31</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>40</v>
-      </c>
-      <c r="O6" s="1">
-        <v>40</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="1">
-        <f>-(O6+O32+O8)</f>
-        <v>-430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1">
-        <v>90</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="1">
-        <v>90</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="1">
-        <f>T5+T6</f>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-90</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-90</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="1">
-        <f>-O27</f>
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>500</v>
-      </c>
-      <c r="C9" s="1">
-        <v>500</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2">
-        <v>500</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="1">
-        <f>-(O21+O22+O23+O24+O26+O33+O34+O36)</f>
-        <v>-263.64300000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T10" s="1">
-        <f>N35+N37</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>800</v>
-      </c>
-      <c r="C11" s="1">
-        <v>800</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>800</v>
-      </c>
-      <c r="K11" s="1">
-        <v>800</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T7+T8+T9+T10</f>
-        <v>248.35699999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-160</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="6">
-        <f>-(160+137.143)</f>
-        <v>-297.14300000000003</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="1">
-        <f>-O28</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="6">
-        <f>12-12</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="1">
-        <f>N30</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="1">
-        <f>T11+T12+T13</f>
-        <v>255.35699999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" s="1">
-        <f>-O29</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1">
-        <v>70</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1">
-        <v>70</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T16" s="1">
-        <f>T14+T15</f>
-        <v>155.35699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>90</v>
-      </c>
-      <c r="D17" s="1">
-        <v>90</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2">
-        <v>90</v>
-      </c>
-      <c r="L17" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2">
-        <v>100</v>
-      </c>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>150</v>
-      </c>
-      <c r="E19" s="1">
-        <v>150</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="2">
-        <v>150</v>
-      </c>
-      <c r="M19" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5">
-        <f>C33+G33-D33-F33-E19</f>
-        <v>710</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="5">
-        <f>K38+O38-L38-N38-M19</f>
-        <v>710</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="2">
-        <v>13</v>
-      </c>
-      <c r="O21" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2">
-        <v>14</v>
-      </c>
-      <c r="O22" s="1">
-        <v>14</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="G23" s="1">
-        <v>19</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2">
-        <v>19</v>
-      </c>
-      <c r="O23" s="1">
-        <v>19</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <f>K3</f>
-        <v>502.5</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="1">
-        <f>L16</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1">
-        <v>23</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2">
-        <v>23</v>
-      </c>
-      <c r="O24" s="6">
-        <f>23+12</f>
-        <v>35</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T24" s="1">
-        <f>K4+K5</f>
-        <v>180</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="1">
-        <f>L18</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1">
-        <v>40</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="2">
-        <v>40</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T25" s="1">
-        <f>K7</f>
-        <v>90</v>
-      </c>
-      <c r="W25" s="1">
-        <f>W23+W24</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1">
-        <v>23</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="2">
-        <v>23</v>
-      </c>
-      <c r="O26" s="1">
-        <v>23</v>
-      </c>
-      <c r="T26" s="1">
-        <f>T23+T24+T25</f>
-        <v>772.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2">
-        <v>18</v>
-      </c>
-      <c r="O27" s="1">
-        <v>18</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="2">
-        <v>10</v>
-      </c>
-      <c r="O28" s="1">
-        <v>10</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W28" s="1">
-        <f>L17</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>30</v>
-      </c>
-      <c r="G29" s="1">
-        <v>100</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="2">
-        <v>30</v>
-      </c>
-      <c r="O29" s="1">
-        <v>100</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T29" s="1">
-        <f>K11+K12</f>
-        <v>502.85699999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2">
-        <v>17</v>
-      </c>
-      <c r="N30" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2">
-        <v>900</v>
-      </c>
-      <c r="F31" s="1">
-        <v>900</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="2">
-        <v>900</v>
-      </c>
-      <c r="N31" s="1">
-        <v>900</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2">
-        <v>480</v>
-      </c>
-      <c r="G32" s="1">
-        <v>480</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="2">
-        <v>480</v>
-      </c>
-      <c r="O32" s="1">
-        <v>480</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W32" s="1">
-        <f>M19</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1">
-        <f>SUM(C3:C32)</f>
-        <v>1417</v>
-      </c>
-      <c r="D33" s="1">
-        <f>SUM(D3:D32)</f>
-        <v>330</v>
-      </c>
-      <c r="E33" s="1">
-        <f>SUM(E3:E32)</f>
-        <v>860</v>
-      </c>
-      <c r="F33" s="1">
-        <f>SUM(F3:F32)</f>
-        <v>917</v>
-      </c>
-      <c r="G33" s="1">
-        <f>SUM(G3:G32)</f>
-        <v>690</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" s="6">
-        <f>J41</f>
-        <v>10</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W33" s="1">
-        <f>M20+T16</f>
-        <v>865.35699999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="6">
-        <f>J50</f>
-        <v>12.5</v>
-      </c>
-      <c r="W34" s="1">
-        <f>W32+W33</f>
-        <v>1015.357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="6">
-        <v>30</v>
-      </c>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O36" s="6">
-        <f>137.143</f>
-        <v>137.143</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T36" s="1">
-        <f>T26+T29</f>
-        <v>1275.357</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W36" s="1">
-        <f>W25+W28+W34</f>
-        <v>1275.357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N37" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="1">
-        <f>SUM(K3:K37)</f>
-        <v>1275.357</v>
-      </c>
-      <c r="L38" s="1">
-        <f>SUM(L3:L37)</f>
-        <v>260</v>
-      </c>
-      <c r="M38" s="1">
-        <f>SUM(M3:M37)</f>
-        <v>860</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" ref="N38" si="0">SUM(N3:N37)</f>
-        <v>977</v>
-      </c>
-      <c r="O38" s="1">
-        <f>SUM(O3:O37)</f>
-        <v>821.64300000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <f>B43-B42-B41</f>
-        <v>100</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="1">
-        <f>B40*10%</f>
-        <v>10</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" s="1">
-        <f>B43*10%</f>
-        <v>20</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N40" s="1">
-        <f>J41</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
-        <v>800</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="1">
-        <f>J40-10</f>
-        <v>10</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" s="1">
-        <f>N40</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1">
-        <f>B4</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="1">
-        <f>500/10*0.25</f>
-        <v>12.5</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="1">
-        <f>J50</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="1">
-        <f>N50</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I53" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1">
-        <f>B9/10*0.5</f>
-        <v>25</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J54" s="1">
-        <v>500</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N54" s="1">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J55" s="1">
-        <f>-B54-J50</f>
-        <v>-37.5</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N55" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J56" s="1">
-        <f>J54+J55</f>
-        <v>462.5</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N56" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" s="1">
-        <v>30</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N57" s="1">
-        <v>492.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" s="1">
-        <f>J56+J57</f>
-        <v>492.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="3">
-        <f>B72*6/28</f>
-        <v>137.14285714285714</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N62" s="3">
-        <f>J62</f>
-        <v>137.14285714285714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N63" s="3">
-        <f>N62</f>
-        <v>137.14285714285714</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="1">
-        <f>7*8/2</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="1">
-        <f>B11</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="1">
-        <f>B70*20%</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="1">
-        <f>B70-B71</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="4">
-        <f>B72*B69/B68</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J76" s="1">
-        <v>12</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N76" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N77" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N81" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N82" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I86" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J86" s="1">
-        <f>30</f>
-        <v>30</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N86" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N87" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90" s="1">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DABAF8-A669-3442-BB22-ADDCCCC6B334}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3061,7 +2909,10 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9">
+        <f>B2</f>
+        <v>480</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -3075,7 +2926,10 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="R2" s="9">
+        <f>M2</f>
+        <v>480</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -3088,7 +2942,10 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <f>B3</f>
+        <v>40</v>
+      </c>
       <c r="H3">
         <v>2</v>
       </c>
@@ -3102,44 +2959,55 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9">
+        <f>M3</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="16">
+        <f>-MIN(120,90)</f>
+        <v>-90</v>
+      </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="16">
+        <f>-MIN(120,90)</f>
+        <v>-90</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="17">
+        <v>40</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3147,13 +3015,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="24">
+        <f>40-40</f>
+        <v>0</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -3169,7 +3040,10 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <f>B6</f>
+        <v>10</v>
+      </c>
       <c r="H6">
         <v>4</v>
       </c>
@@ -3183,7 +3057,10 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="R6" s="9">
+        <f>M6</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -3193,7 +3070,10 @@
         <v>100</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <f>B7</f>
+        <v>100</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -3207,7 +3087,10 @@
         <v>100</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9">
+        <f>M7</f>
+        <v>100</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -3223,7 +3106,10 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <f>B8</f>
+        <v>23</v>
+      </c>
       <c r="H8">
         <v>5</v>
       </c>
@@ -3237,7 +3123,10 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="9">
+        <f>M8</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -3248,7 +3137,10 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="17">
+        <f>1417+620-330-917-150</f>
+        <v>640</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9">
@@ -3262,7 +3154,9 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="17">
+        <v>640</v>
+      </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
@@ -3277,7 +3171,10 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <f>B10</f>
+        <v>13</v>
+      </c>
       <c r="H10">
         <v>8</v>
       </c>
@@ -3291,7 +3188,10 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9">
+        <f>M10</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -3300,7 +3200,10 @@
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="17">
+        <f>24*6/12</f>
+        <v>12</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -3309,12 +3212,15 @@
         <v>9</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="24">
+        <f>24*6/12-12</f>
+        <v>0</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -3328,7 +3234,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="17">
+        <f>80-50</f>
+        <v>30</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3336,13 +3245,16 @@
         <v>9</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="24">
+        <f>80-50-30</f>
+        <v>0</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -3358,7 +3270,10 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <f>B13</f>
+        <v>23</v>
+      </c>
       <c r="H13">
         <v>10</v>
       </c>
@@ -3372,7 +3287,10 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="R13" s="24">
+        <f>M13+12</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -3381,7 +3299,10 @@
       <c r="B14" s="9">
         <v>200</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9">
+        <f>B14</f>
+        <v>200</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3395,7 +3316,10 @@
       <c r="M14" s="9">
         <v>200</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="9">
+        <f>M14</f>
+        <v>200</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -3412,7 +3336,10 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <f>B15</f>
+        <v>14</v>
+      </c>
       <c r="H15">
         <v>12</v>
       </c>
@@ -3426,7 +3353,10 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9">
+        <f>M15</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
@@ -3435,7 +3365,10 @@
       <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <f>B16</f>
+        <v>10</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3449,7 +3382,10 @@
       <c r="M16" s="9">
         <v>10</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="N16" s="24">
+        <f>10+(462.5+30)</f>
+        <v>502.5</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3466,7 +3402,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9">
+        <f>B17</f>
+        <v>19</v>
+      </c>
       <c r="H17">
         <v>13</v>
       </c>
@@ -3480,7 +3419,10 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="R17" s="9">
+        <f>M17</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -3489,7 +3431,10 @@
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="18">
+        <f>-(200-(800-700))*10%</f>
+        <v>-10</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3498,12 +3443,15 @@
         <v>14</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="22">
+        <f>-200*10%</f>
+        <v>-20</v>
+      </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -3517,7 +3465,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <f>B19</f>
+        <v>70</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -3531,7 +3482,10 @@
         <v>70</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9">
+        <f>M19</f>
+        <v>70</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -3545,7 +3499,10 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f>B20</f>
+        <v>150</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20">
@@ -3559,7 +3516,10 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="P20" s="9">
+        <f>M20</f>
+        <v>150</v>
+      </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
@@ -3573,7 +3533,10 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <f>B21</f>
+        <v>900</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21">
         <v>17</v>
@@ -3587,7 +3550,10 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="9">
+        <f>M21</f>
+        <v>900</v>
+      </c>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3597,7 +3563,10 @@
       <c r="B22" s="9">
         <v>800</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9">
+        <f>B22</f>
+        <v>800</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -3611,7 +3580,10 @@
       <c r="M22" s="9">
         <v>800</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="9">
+        <f>M22</f>
+        <v>800</v>
+      </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -3624,7 +3596,10 @@
       <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="18">
+        <f>-500/10*(6/12)</f>
+        <v>-25</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -3633,12 +3608,15 @@
         <v>19</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="22">
+        <f>-500/10*(6/12)-R33+37.5</f>
+        <v>0</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -3655,7 +3633,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9">
+        <f>B24</f>
+        <v>30</v>
+      </c>
       <c r="H24">
         <v>22</v>
       </c>
@@ -3669,7 +3650,10 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="R24" s="9">
+        <f>M24</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -3681,7 +3665,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <f>B25</f>
+        <v>17</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25">
         <v>22</v>
@@ -3695,7 +3682,10 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="9">
+        <f>M25</f>
+        <v>17</v>
+      </c>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -3706,7 +3696,10 @@
         <v>90</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9">
+        <f>B26</f>
+        <v>90</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3720,7 +3713,10 @@
         <v>90</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="9">
+        <f>M26</f>
+        <v>90</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -3736,7 +3732,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9">
+        <f>B27</f>
+        <v>40</v>
+      </c>
       <c r="H27">
         <v>23</v>
       </c>
@@ -3750,7 +3749,9 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
@@ -3759,7 +3760,10 @@
       <c r="B28" s="9">
         <v>500</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9">
+        <f>B28</f>
+        <v>500</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -3773,7 +3777,10 @@
       <c r="M28" s="9">
         <v>500</v>
       </c>
-      <c r="N28" s="9"/>
+      <c r="N28" s="24">
+        <f>500-500</f>
+        <v>0</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -3783,10 +3790,13 @@
       <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="16">
+        <f>-G4</f>
+        <v>90</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3797,10 +3807,13 @@
       <c r="L29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="9"/>
+      <c r="N29" s="16">
+        <f>-R4</f>
+        <v>90</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -3817,7 +3830,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9">
+        <f>B30</f>
+        <v>18</v>
+      </c>
       <c r="H30">
         <v>29</v>
       </c>
@@ -3831,7 +3847,10 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="R30" s="9">
+        <f>M30</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
@@ -3840,7 +3859,10 @@
       <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="18">
+        <f>-800*(1-20%)*7/28</f>
+        <v>-160</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -3849,12 +3871,15 @@
         <v>30</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="27">
+        <f>-800*(1-20%)*7/28-R35</f>
+        <v>-297.14285714285711</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -3863,18 +3888,23 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="L32" s="12"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="L32" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="21">
+        <f>-(N18-C18)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
@@ -3884,13 +3914,18 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="R33" s="23">
+        <f>500/10*(3/12)</f>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
@@ -3900,12 +3935,16 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="L34" s="11"/>
+      <c r="L34" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="Q34" s="23">
+        <v>30</v>
+      </c>
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3916,13 +3955,18 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="L35" s="11"/>
+      <c r="L35" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
+      <c r="R35" s="26">
+        <f>800*(1-20%)*6/28</f>
+        <v>137.14285714285714</v>
+      </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
@@ -3932,12 +3976,17 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="Q36" s="23">
+        <f>30</f>
+        <v>30</v>
+      </c>
       <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3977,20 +4026,50 @@
         <v>54</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="9">
+        <f>SUM(C2:C31)</f>
+        <v>1417</v>
+      </c>
+      <c r="D39" s="9">
+        <f>SUM(D2:D31)</f>
+        <v>330</v>
+      </c>
+      <c r="E39" s="17">
+        <f>150+640</f>
+        <v>790</v>
+      </c>
+      <c r="F39" s="9">
+        <f>SUM(F2:F31)</f>
+        <v>917</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUM(G2:G31)</f>
+        <v>620</v>
+      </c>
       <c r="L39" s="11" t="s">
         <v>54</v>
       </c>
       <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
+      <c r="N39" s="25">
+        <f>SUM(N2:N31)</f>
+        <v>1275.3571428571429</v>
+      </c>
+      <c r="O39" s="9">
+        <f>SUM(O2:O31)</f>
+        <v>260</v>
+      </c>
+      <c r="P39" s="17">
+        <f>150+640</f>
+        <v>790</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>SUM(Q2:Q31)</f>
+        <v>917</v>
+      </c>
+      <c r="R39" s="9">
+        <f>SUM(R2:R31)</f>
+        <v>592</v>
+      </c>
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4004,6 +4083,1336 @@
     <sortCondition ref="H2:H31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DA7F01-A05A-E141-BA8E-4265B4559C54}">
+  <dimension ref="A1:X90"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="33.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="R1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f>10+492.5</f>
+        <v>502.5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>200</v>
+      </c>
+      <c r="K4" s="8">
+        <f>200</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-20</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1">
+        <f>N31</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="1">
+        <f>-(O6+O32+O8)</f>
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>90</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="1">
+        <f>T5+T6</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-90</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-90</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="1">
+        <f>-O27</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>500</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="1">
+        <f>-(O21+O22+O23+O24+O26+O33+O34+O36)</f>
+        <v>-263.64300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="1">
+        <f>N35+N37</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>800</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>800</v>
+      </c>
+      <c r="K11" s="1">
+        <v>800</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="1">
+        <f>T7+T8+T9+T10</f>
+        <v>248.35699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-160</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6">
+        <f>-(160+137.143)</f>
+        <v>-297.14300000000003</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="1">
+        <f>-O28</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="6">
+        <f>12-12</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="1">
+        <f>N30</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="15">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="1">
+        <f>T11+T12+T13</f>
+        <v>255.35699999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="15">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="1">
+        <f>-O29</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>70</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1">
+        <v>70</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="1">
+        <f>T14+T15</f>
+        <v>155.35699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1">
+        <v>90</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>90</v>
+      </c>
+      <c r="L17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1">
+        <v>150</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2">
+        <v>150</v>
+      </c>
+      <c r="M19" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14">
+        <f>C33+G33-D33-F33-E19</f>
+        <v>710</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="5">
+        <f>K38+O38-L38-N38-M19</f>
+        <v>710</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <v>14</v>
+      </c>
+      <c r="O22" s="1">
+        <v>14</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2">
+        <v>19</v>
+      </c>
+      <c r="O23" s="1">
+        <v>19</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <f>K3</f>
+        <v>502.5</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="1">
+        <f>L16</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2">
+        <v>23</v>
+      </c>
+      <c r="O24" s="6">
+        <f>23+12</f>
+        <v>35</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T24" s="1">
+        <f>K4+K5</f>
+        <v>180</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" s="1">
+        <f>L18</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2">
+        <v>40</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T25" s="1">
+        <f>K7</f>
+        <v>90</v>
+      </c>
+      <c r="W25" s="1">
+        <f>W23+W24</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1">
+        <v>23</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1">
+        <v>23</v>
+      </c>
+      <c r="T26" s="1">
+        <f>T23+T24+T25</f>
+        <v>772.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1">
+        <v>18</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1">
+        <v>10</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="1">
+        <f>L17</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2">
+        <v>30</v>
+      </c>
+      <c r="O29" s="1">
+        <v>100</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" s="1">
+        <f>K11+K12</f>
+        <v>502.85699999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="2">
+        <v>17</v>
+      </c>
+      <c r="N30" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>900</v>
+      </c>
+      <c r="F31" s="1">
+        <v>900</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="2">
+        <v>900</v>
+      </c>
+      <c r="N31" s="1">
+        <v>900</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>480</v>
+      </c>
+      <c r="G32" s="1">
+        <v>480</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="2">
+        <v>480</v>
+      </c>
+      <c r="O32" s="1">
+        <v>480</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W32" s="1">
+        <f>M19</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1">
+        <f>SUM(C3:C32)</f>
+        <v>1417</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM(D3:D32)</f>
+        <v>330</v>
+      </c>
+      <c r="E33" s="1">
+        <f>SUM(E3:E32)</f>
+        <v>860</v>
+      </c>
+      <c r="F33" s="1">
+        <f>SUM(F3:F32)</f>
+        <v>917</v>
+      </c>
+      <c r="G33" s="1">
+        <f>SUM(G3:G32)</f>
+        <v>690</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="6">
+        <f>J41</f>
+        <v>10</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W33" s="1">
+        <f>M20+T16</f>
+        <v>865.35699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="6">
+        <f>J50</f>
+        <v>12.5</v>
+      </c>
+      <c r="W34" s="1">
+        <f>W32+W33</f>
+        <v>1015.357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="6">
+        <v>30</v>
+      </c>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36" s="6">
+        <f>137.143</f>
+        <v>137.143</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T36" s="1">
+        <f>T26+T29</f>
+        <v>1275.357</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W36" s="1">
+        <f>W25+W28+W34</f>
+        <v>1275.357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="1">
+        <f>SUM(K3:K37)</f>
+        <v>1275.357</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(L3:L37)</f>
+        <v>260</v>
+      </c>
+      <c r="M38" s="1">
+        <f>SUM(M3:M37)</f>
+        <v>860</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38" si="0">SUM(N3:N37)</f>
+        <v>977</v>
+      </c>
+      <c r="O38" s="1">
+        <f>SUM(O3:O37)</f>
+        <v>821.64300000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B43-B42-B41</f>
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="1">
+        <f>B40*10%</f>
+        <v>10</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="1">
+        <f>B43*10%</f>
+        <v>20</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="1">
+        <f>J41</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>800</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="1">
+        <f>J40-10</f>
+        <v>10</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41" s="1">
+        <f>N40</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="1">
+        <f>500/10*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="1">
+        <f>J50</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="1">
+        <f>N50</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1">
+        <f>B9/10*0.5</f>
+        <v>25</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="1">
+        <v>500</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="1">
+        <f>-B54-J50</f>
+        <v>-37.5</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N55" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="1">
+        <f>J54+J55</f>
+        <v>462.5</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="1">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" s="1">
+        <v>492.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="1">
+        <f>J56+J57</f>
+        <v>492.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="3">
+        <f>B72*6/28</f>
+        <v>137.14285714285714</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N62" s="3">
+        <f>J62</f>
+        <v>137.14285714285714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="3">
+        <f>N62</f>
+        <v>137.14285714285714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1">
+        <f>7*8/2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1">
+        <f>B11</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="1">
+        <f>B70*20%</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="1">
+        <f>B70-B71</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72*B69/B68</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J76" s="1">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N76" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N77" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N81" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N82" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J86" s="1">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N86" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4011,7 +5420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC64A2F3-A1EF-4248-A3FE-048992E758BE}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A83" zoomScale="200" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>

--- a/Final Exam Moed A Basis and ANS.xlsx
+++ b/Final Exam Moed A Basis and ANS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/YVC - Financial Accounting A/Old Exams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CC21CF-546B-994C-93F5-6114FCD19B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB80B73-40A6-C54B-B699-DFE55DAF9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="32000" xr2:uid="{BCBCED09-8878-6945-AEF5-81685299901C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29660" xr2:uid="{BCBCED09-8878-6945-AEF5-81685299901C}"/>
   </bookViews>
   <sheets>
     <sheet name="פתרון משותף בכיתה" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="238">
   <si>
     <t>סעיף</t>
   </si>
@@ -699,17 +699,172 @@
   <si>
     <t>הכנסות משירותי ייעוץ - חדש!!!</t>
   </si>
+  <si>
+    <t>חברת ״הנקניק העילאי״ - דוח רווח והפסד לשנה שנסתיימה ב-31.12.2023</t>
+  </si>
+  <si>
+    <t>אלפי ש״ח</t>
+  </si>
+  <si>
+    <t>הוצאות אחרות</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מכירות </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(בניכוי החזרות מלקוחות והנחות מסחריות ללקוחות)</t>
+    </r>
+  </si>
+  <si>
+    <t>מלאי פתיחה (לתחילת השנה, 1.1)</t>
+  </si>
+  <si>
+    <t>בניכוי מלאי סגירה (לתום השנה, 31.12)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בתוספת קניות נטו </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(כולל הובלה למחסן, ובניכוי החזרות לספקים והנחות מסחריות מספקים)</t>
+    </r>
+  </si>
+  <si>
+    <t>סה״כ עלות המכירות - תועתק בסימן שלילי לדוח רווח והפסד</t>
+  </si>
+  <si>
+    <t>עלות המכירות (*)</t>
+  </si>
+  <si>
+    <t>רווח גולמי: מכירות בניכוי עלות המכירות</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">רווח תפעולי: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>רווח גולמי אחרי מכירה ושיווק, הנהלה וכלליות ואחרות</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">רווח לפני מס: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>רווח תפעולי אחרי מימון</t>
+    </r>
+  </si>
+  <si>
+    <t>חברת הנקניק המדהים בע״מ - הדוח על המצב הכספי (מאזן) ליום 31.12.2023</t>
+  </si>
+  <si>
+    <t>סך ההתחייבויות וההון העצמי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מלאי </t>
+  </si>
+  <si>
+    <t>סך הנכסים השוטפים</t>
+  </si>
+  <si>
+    <t>רכוש קבוע (נטו)</t>
+  </si>
+  <si>
+    <t>סך הנכסים הלא שוטפים</t>
+  </si>
+  <si>
+    <t>סך ההתחייבויות השוטפות</t>
+  </si>
+  <si>
+    <t>סך ההתחייבויות הלא שוטפות</t>
+  </si>
+  <si>
+    <t>עודפים (לסוף שנה!)</t>
+  </si>
+  <si>
+    <t>הנכסים שווים לסך ההתח׳ וההון</t>
+  </si>
+  <si>
+    <t>סך התחייבויות</t>
+  </si>
+  <si>
+    <t>סך ההון העצמי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,275.357 - 260 = </t>
+  </si>
+  <si>
+    <t>דרך ישירה להגיע לעודפים לסוף השנה:</t>
+  </si>
+  <si>
+    <t>עודפים 1.1 (לתחילת השנה, חילצנו שיעור קודם)</t>
+  </si>
+  <si>
+    <t>הוסף - רווח נקי השנה מדוח רווח והפסד</t>
+  </si>
+  <si>
+    <t>סך העודפים לסוף השנה</t>
+  </si>
+  <si>
+    <t>פקודות יומן להוצאות פחת ומכירת רכוש קבוע</t>
+  </si>
+  <si>
+    <t>ח׳ הוצאות פחת - מכונות נקניק</t>
+  </si>
+  <si>
+    <t>ח׳ הוצאות פחת - Macbooks</t>
+  </si>
+  <si>
+    <t>ז׳ פחנ״צ מכונות נקניק</t>
+  </si>
+  <si>
+    <t>ז׳ פחנ״צ - Macbooks</t>
+  </si>
+  <si>
+    <t>פחת:</t>
+  </si>
+  <si>
+    <t>רווח הון:</t>
+  </si>
+  <si>
+    <t>ח׳ פחנ״צ - מכונות נקניק</t>
+  </si>
+  <si>
+    <t>ז׳ מכונות נקניק</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="175" formatCode="0.000_);\(0.000\)"/>
+    <numFmt numFmtId="166" formatCode="0.000_);\(0.000\)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000_);\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,8 +908,18 @@
       <color rgb="FFFF0000"/>
       <name val="David"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,8 +938,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8C8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -797,11 +986,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -816,13 +1034,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -837,7 +1049,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -859,15 +1070,82 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD3FFFF"/>
+      <color rgb="FFFFFF79"/>
+      <color rgb="FFD8C8FF"/>
+      <color rgb="FFD883FF"/>
+      <color rgb="FFFFD579"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1905,6 +2183,416 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87C75A6-18DE-7BD8-4D2E-ACBAD8B0BB6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508524333" y="922867"/>
+          <a:ext cx="135467" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>639234</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>664633</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9967CD6-39EF-9297-3503-7DC1CCFC7371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13508642867" y="922867"/>
+          <a:ext cx="25399" cy="2849033"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>664633</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CDDFB7-E90B-D2BD-357E-71DBDA5AF63E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508507400" y="3767667"/>
+          <a:ext cx="135467" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>421599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>421599</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CD32E7-A9BC-8800-4006-C85723EDD2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13533853893" y="5116434"/>
+          <a:ext cx="0" cy="416394"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>458034</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>458034</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AA411B-4627-66D5-37F8-2847F02724E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13531334712" y="5095615"/>
+          <a:ext cx="0" cy="416394"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>426804</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>447623</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62E0746-51CA-D9CC-7C02-E53D2E4A8429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13531345123" y="5501598"/>
+          <a:ext cx="2503565" cy="15615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>655820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>400779</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C31215B-0A15-20AD-BEF9-4172F1EABD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13530564385" y="1504221"/>
+          <a:ext cx="572541" cy="832787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>697459</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>437213</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75359479-F8A1-746F-9571-180059574373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13530527951" y="2519180"/>
+          <a:ext cx="567336" cy="359139"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2842,19 +3530,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DABAF8-A669-3442-BB22-ADDCCCC6B334}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="163" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="36.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="28" width="10.83203125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2897,9 +3589,24 @@
       <c r="R1" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="U1" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="AC1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="9">
@@ -2913,10 +3620,10 @@
         <f>B2</f>
         <v>480</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="M2" s="9">
@@ -2931,8 +3638,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9">
@@ -2946,10 +3653,10 @@
         <f>B3</f>
         <v>40</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="9">
@@ -2963,74 +3670,109 @@
         <f>M3</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="X3" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <f>-MIN(120,90)</f>
         <v>-90</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="16">
+      <c r="R4" s="14">
         <f>-MIN(120,90)</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="U4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X4" s="27">
+        <f>Q21</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>40</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="24">
+      <c r="O5" s="21">
         <f>40-40</f>
         <v>0</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="U5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X5" s="27">
+        <f>-AA23</f>
+        <v>-430</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9">
@@ -3044,10 +3786,10 @@
         <f>B6</f>
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="9">
@@ -3061,9 +3803,30 @@
         <f>M6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="U6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X6" s="31">
+        <f>X4+X5</f>
+        <v>470</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>N16</f>
+        <v>502.5</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>O19</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9">
@@ -3077,10 +3840,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="9">
@@ -3094,9 +3857,30 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="U7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" s="27">
+        <f>-(R30)</f>
+        <v>-18</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" s="40">
+        <f>N14+N18</f>
+        <v>180</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>O7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="9">
@@ -3110,10 +3894,10 @@
         <f>B8</f>
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="9">
@@ -3127,9 +3911,30 @@
         <f>M8</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="U8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="34">
+        <f>-(R8+R10+R13+R15+R17+R32+R33+R35)</f>
+        <v>-263.64285714285711</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE8" s="27">
+        <f>N29</f>
+        <v>90</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH8" s="41">
+        <f>SUM(AH6:AH7)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3137,16 +3942,16 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f>1417+620-330-917-150</f>
         <v>640</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -3154,14 +3959,28 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="17">
+      <c r="P9" s="15">
         <v>640</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="U9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="27">
+        <f>Q34+Q36</f>
+        <v>60</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE9" s="41">
+        <f>SUM(AE6:AE8)</f>
+        <v>772.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="9">
@@ -3175,10 +3994,10 @@
         <f>B10</f>
         <v>13</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="9">
@@ -3192,15 +4011,25 @@
         <f>M10</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="U10" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="33">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <f>24*6/12</f>
         <v>12</v>
       </c>
@@ -3208,16 +4037,16 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>196</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="21">
         <f>24*6/12-12</f>
         <v>0</v>
       </c>
@@ -3225,42 +4054,61 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="U11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X11" s="35">
+        <f>SUM(X6:X10)</f>
+        <v>248.35714285714289</v>
+      </c>
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>80-50</f>
         <v>30</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>9</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>197</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="24">
+      <c r="O12" s="21">
         <f>80-50-30</f>
         <v>0</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="U12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="27">
+        <f>-R6</f>
+        <v>-10</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AJ12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="9">
@@ -3274,10 +4122,10 @@
         <f>B13</f>
         <v>23</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="9">
@@ -3287,13 +4135,31 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="24">
+      <c r="R13" s="21">
         <f>M13+12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="U13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13" s="27">
+        <f>Q25</f>
+        <v>17</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="9">
@@ -3307,10 +4173,10 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="9">
@@ -3324,9 +4190,30 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="U14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X14" s="35">
+        <f>SUM(X11:X13)</f>
+        <v>255.35714285714289</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE14" s="43">
+        <f>N22+N31</f>
+        <v>502.85714285714289</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="2">
+        <f>O26</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="9">
@@ -3340,10 +4227,10 @@
         <f>B15</f>
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>12</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="9">
@@ -3357,9 +4244,30 @@
         <f>M15</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="U15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X15" s="27">
+        <f>-R24</f>
+        <v>-30</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE15" s="44">
+        <f>AE14</f>
+        <v>502.85714285714289</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH15" s="41">
+        <f>AH14</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="9">
@@ -3373,16 +4281,16 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>13</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="9">
         <v>10</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="21">
         <f>10+(462.5+30)</f>
         <v>502.5</v>
       </c>
@@ -3390,9 +4298,16 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="U16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X16" s="35">
+        <f>X14+X15</f>
+        <v>225.35714285714289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="9">
@@ -3406,10 +4321,10 @@
         <f>B17</f>
         <v>19</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>13</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="9">
@@ -3424,14 +4339,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <f>-(200-(800-700))*10%</f>
         <v>-10</v>
       </c>
@@ -3439,16 +4354,16 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>14</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="19">
         <f>-200*10%</f>
         <v>-20</v>
       </c>
@@ -3456,9 +4371,12 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="AF18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="9">
@@ -3472,10 +4390,10 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>16</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="9">
@@ -3489,9 +4407,18 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="U19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="9">
@@ -3505,10 +4432,10 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>17</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="9">
@@ -3522,9 +4449,22 @@
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="U20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH20" s="46">
+        <f>AH21-AH19</f>
+        <v>865.35714285714289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="9">
@@ -3538,10 +4478,10 @@
         <v>900</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>17</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="M21" s="9">
@@ -3555,9 +4495,26 @@
         <v>900</v>
       </c>
       <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="U21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>R2</f>
+        <v>480</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH21" s="44">
+        <f>AH25-AJ13</f>
+        <v>1015.3571428571429</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="9">
@@ -3571,10 +4528,10 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>18</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="9">
@@ -3588,15 +4545,21 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="U22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <f>-500/10*(6/12)</f>
         <v>-25</v>
       </c>
@@ -3604,16 +4567,16 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>19</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="19">
         <f>-500/10*(6/12)-R33+37.5</f>
         <v>0</v>
       </c>
@@ -3621,9 +4584,16 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="U23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="30">
+        <f>SUM(AA20:AA22)</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="9">
@@ -3637,10 +4607,10 @@
         <f>B24</f>
         <v>30</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>22</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M24" s="9">
@@ -3655,8 +4625,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="9">
@@ -3670,10 +4640,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>22</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="9">
@@ -3687,9 +4657,24 @@
         <v>17</v>
       </c>
       <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="AC25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="45">
+        <f>AE9+AE15</f>
+        <v>1275.3571428571429</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH25" s="45">
+        <f>AE25</f>
+        <v>1275.3571428571429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="9">
@@ -3703,10 +4688,10 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>23</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M26" s="9">
@@ -3721,8 +4706,8 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="9">
@@ -3736,10 +4721,10 @@
         <f>B27</f>
         <v>40</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>23</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="9">
@@ -3749,12 +4734,15 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="24">
+      <c r="R27" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="AF27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="9">
@@ -3768,16 +4756,16 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>25</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="M28" s="9">
         <v>500</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="21">
         <f>500-500</f>
         <v>0</v>
       </c>
@@ -3786,14 +4774,14 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <f>-G4</f>
         <v>90</v>
       </c>
@@ -3801,16 +4789,16 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>29</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="14">
         <f>-R4</f>
         <v>90</v>
       </c>
@@ -3819,8 +4807,8 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="9">
@@ -3834,10 +4822,10 @@
         <f>B30</f>
         <v>18</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>29</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="9">
@@ -3851,15 +4839,18 @@
         <f>M30</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="AC30" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <f>-800*(1-20%)*7/28</f>
         <v>-160</v>
       </c>
@@ -3867,16 +4858,16 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>30</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="24">
         <f>-800*(1-20%)*7/28-R35</f>
         <v>-297.14285714285711</v>
       </c>
@@ -3884,37 +4875,51 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="L32" s="20" t="s">
+      <c r="AC31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG31" s="2">
+        <f>P9</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="L32" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="21">
+      <c r="M32" s="9"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="18">
         <f>-(N18-C18)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="AC32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG32" s="34">
+        <f>X16</f>
+        <v>225.35714285714289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="17" t="s">
         <v>191</v>
       </c>
       <c r="M33" s="9"/>
@@ -3922,40 +4927,47 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="23">
+      <c r="R33" s="20">
         <f>500/10*(3/12)</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="AC33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG33" s="47">
+        <f>AG31+AG32</f>
+        <v>865.35714285714289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="17" t="s">
         <v>192</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="23">
+      <c r="Q34" s="20">
         <v>30</v>
       </c>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="17" t="s">
         <v>198</v>
       </c>
       <c r="M35" s="9"/>
@@ -3963,41 +4975,47 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="26">
+      <c r="R35" s="23">
         <f>800*(1-20%)*6/28</f>
         <v>137.14285714285714</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="17" t="s">
         <v>199</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="23">
+      <c r="Q36" s="20">
         <f>30</f>
         <v>30</v>
       </c>
       <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="V36" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -4005,24 +5023,41 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-    </row>
-    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="U38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y38" s="1">
+        <f>R33</f>
+        <v>12.5</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC38" s="3">
+        <f>R35</f>
+        <v>137.14285714285714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="9"/>
@@ -4034,7 +5069,7 @@
         <f>SUM(D2:D31)</f>
         <v>330</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <f>150+640</f>
         <v>790</v>
       </c>
@@ -4046,11 +5081,11 @@
         <f>SUM(G2:G31)</f>
         <v>620</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="M39" s="9"/>
-      <c r="N39" s="25">
+      <c r="N39" s="22">
         <f>SUM(N2:N31)</f>
         <v>1275.3571428571429</v>
       </c>
@@ -4058,30 +5093,76 @@
         <f>SUM(O2:O31)</f>
         <v>260</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="15">
         <f>150+640</f>
         <v>790</v>
       </c>
       <c r="Q39" s="9">
-        <f>SUM(Q2:Q31)</f>
-        <v>917</v>
-      </c>
-      <c r="R39" s="9">
-        <f>SUM(R2:R31)</f>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <f>SUM(Q2:Q36)</f>
+        <v>977</v>
+      </c>
+      <c r="R39" s="22">
+        <f>SUM(R2:R36)</f>
+        <v>751.64285714285711</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y39" s="1">
+        <f>Y38</f>
+        <v>12.5</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC39" s="3">
+        <f>AC38</f>
+        <v>137.14285714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="R41" s="3"/>
+      <c r="U41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>492.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="V42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="V43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="V44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
     <sortCondition ref="H2:H31"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AC1:AH1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4228,7 +5309,7 @@
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>-10</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4282,7 +5363,7 @@
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>90</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -4309,7 +5390,7 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>-90</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -4363,7 +5444,7 @@
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>-25</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -4417,7 +5498,7 @@
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>-160</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -4445,7 +5526,7 @@
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -4473,7 +5554,7 @@
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -4501,7 +5582,7 @@
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -4618,7 +5699,7 @@
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <f>C33+G33-D33-F33-E19</f>
         <v>710</v>
       </c>
@@ -5985,10 +7066,10 @@
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>44196</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="11">
         <v>44561</v>
       </c>
     </row>
@@ -6035,10 +7116,10 @@
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="11">
         <v>44196</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="11">
         <v>44561</v>
       </c>
     </row>
@@ -6088,16 +7169,16 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="13">
+      <c r="B102" s="11">
         <v>44926</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="11">
         <v>45291</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="11">
         <v>45536</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="11">
         <v>45657</v>
       </c>
     </row>
@@ -6210,7 +7291,7 @@
       <c r="A112" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="11">
         <v>44743</v>
       </c>
     </row>
